--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
   <si>
     <t>MatchPercentage</t>
   </si>
@@ -69,7 +78,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>MatchPercentage</t>
+  </si>
   <si>
     <t>MatchPercentage</t>
   </si>
@@ -78,247 +81,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>85.044247787610615</v>
+        <v>49.712262062859672</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>85.044247787610615</v>
+        <v>49.490925188136345</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
   <si>
     <t>MatchPercentage</t>
   </si>
@@ -81,247 +90,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>49.490925188136345</v>
+        <v>89.601769911504419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>49.490925188136345</v>
+        <v>89.026548672566378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>49.490925188136345</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>49.490925188136345</v>
+        <v>88.451327433628322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>49.490925188136345</v>
+        <v>88.849557522123888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>49.490925188136345</v>
+        <v>88.274336283185846</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>49.490925188136345</v>
+        <v>82.743362831858406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>49.490925188136345</v>
+        <v>83.318584070796462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>49.490925188136345</v>
+        <v>81.769911504424769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>49.490925188136345</v>
+        <v>82.30088495575221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>49.490925188136345</v>
+        <v>80.04424778761063</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>49.490925188136345</v>
+        <v>81.946902654867259</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>49.490925188136345</v>
+        <v>82.079646017699119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>49.490925188136345</v>
+        <v>81.106194690265482</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>49.490925188136345</v>
+        <v>81.504424778761063</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>49.490925188136345</v>
+        <v>91.637168141592923</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>49.490925188136345</v>
+        <v>92.16814159292035</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>49.490925188136345</v>
+        <v>94.646017699115049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>49.490925188136345</v>
+        <v>88.495575221238937</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>49.490925188136345</v>
+        <v>88.495575221238937</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>49.490925188136345</v>
+        <v>89.159292035398224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>49.490925188136345</v>
+        <v>87.787610619469021</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>49.490925188136345</v>
+        <v>87.920353982300881</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>49.490925188136345</v>
+        <v>88.185840707964601</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>49.490925188136345</v>
+        <v>85.088495575221231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>49.490925188136345</v>
+        <v>83.141592920353986</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>49.490925188136345</v>
+        <v>85.575221238938042</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>49.490925188136345</v>
+        <v>84.778761061946909</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>49.490925188136345</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>49.490925188136345</v>
+        <v>92.30088495575221</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>49.490925188136345</v>
+        <v>89.911504424778769</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>49.490925188136345</v>
+        <v>88.495575221238937</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>49.490925188136345</v>
+        <v>89.601769911504419</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>49.490925188136345</v>
+        <v>91.327433628318587</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>49.490925188136345</v>
+        <v>89.380530973451329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>49.490925188136345</v>
+        <v>90.530973451327441</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>49.490925188136345</v>
+        <v>86.061946902654867</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>49.490925188136345</v>
+        <v>87.964601769911496</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>49.490925188136345</v>
+        <v>86.371681415929203</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>49.490925188136345</v>
+        <v>83.230088495575217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>49.490925188136345</v>
+        <v>84.292035398230098</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>49.490925188136345</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>49.490925188136345</v>
+        <v>82.079646017699119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>49.712262062859672</v>
+        <v>88.893805309734503</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>49.490925188136345</v>
+        <v>85.707964601769916</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>49.490925188136345</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>49.490925188136345</v>
+        <v>82.964601769911511</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>49.490925188136345</v>
+        <v>90.265486725663706</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
   <si>
     <t>MatchPercentage</t>
   </si>
@@ -90,7 +96,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>MatchPercentage</t>
+  </si>
   <si>
     <t>MatchPercentage</t>
   </si>
@@ -96,247 +99,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>89.601769911504419</v>
+        <v>93.139448173005221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>89.026548672566378</v>
+        <v>92.244593586875467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>90</v>
+        <v>93.437733035048481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>88.451327433628322</v>
+        <v>89.560029828486208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>88.849557522123888</v>
+        <v>89.261744966442961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>88.274336283185846</v>
+        <v>88.73974645786727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>82.743362831858406</v>
+        <v>84.41461595824012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>83.318584070796462</v>
+        <v>84.787472035794181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>81.769911504424769</v>
+        <v>82.028337061894106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>82.30088495575221</v>
+        <v>84.116331096196873</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>80.04424778761063</v>
+        <v>76.510067114093957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>81.946902654867259</v>
+        <v>80.164056674123785</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>82.079646017699119</v>
+        <v>83.22147651006712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>81.106194690265482</v>
+        <v>81.87919463087249</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>81.504424778761063</v>
+        <v>82.401193139448168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>91.637168141592923</v>
+        <v>92.393736017897083</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>92.16814159292035</v>
+        <v>95.227442207307973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>94.646017699115049</v>
+        <v>97.017151379567494</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>88.495575221238937</v>
+        <v>91.946308724832221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>88.495575221238937</v>
+        <v>92.393736017897083</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>89.159292035398224</v>
+        <v>92.915734526472775</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>87.787610619469021</v>
+        <v>90.902311707680838</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.920353982300881</v>
+        <v>90.23117076808353</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>88.185840707964601</v>
+        <v>90.082028337061899</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>85.088495575221231</v>
+        <v>85.90604026845638</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>83.141592920353986</v>
+        <v>82.997762863534675</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>85.575221238938042</v>
+        <v>86.278896346010441</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>84.778761061946909</v>
+        <v>84.712900820283366</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>80</v>
+        <v>77.926920208799402</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>92.30088495575221</v>
+        <v>93.363161819537652</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>89.911504424778769</v>
+        <v>95.973154362416096</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>88.495575221238937</v>
+        <v>93.214019388516036</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>89.601769911504419</v>
+        <v>96.346010439970172</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>91.327433628318587</v>
+        <v>95.600298284862035</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>89.380530973451329</v>
+        <v>92.244593586875467</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>90.530973451327441</v>
+        <v>94.034302759134974</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>86.061946902654867</v>
+        <v>87.39746457867264</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>87.964601769911496</v>
+        <v>90.529455630126776</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>86.371681415929203</v>
+        <v>87.173750932140194</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>83.230088495575217</v>
+        <v>83.296047725577921</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>84.292035398230098</v>
+        <v>85.384041759880688</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>85</v>
+        <v>85.607755406413119</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>82.079646017699119</v>
+        <v>81.058911260253538</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>88.893805309734503</v>
+        <v>89.336316181953762</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>85.707964601769916</v>
+        <v>83.892617449664428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>90</v>
+        <v>90.007457121551084</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.964601769911511</v>
+        <v>82.699478001491428</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>90.265486725663706</v>
+        <v>89.858314690529454</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,39 +13,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
   </si>
   <si>
     <t>HK_R_acc_SD</t>
@@ -105,7 +114,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,39 +13,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
   </si>
   <si>
     <t>HK_R_acc_SD</t>
@@ -114,247 +117,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>89.601769911504419</v>
+        <v>93.139448173005221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>89.026548672566378</v>
+        <v>92.244593586875467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>90</v>
+        <v>93.437733035048481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>88.451327433628322</v>
+        <v>89.560029828486208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>88.849557522123888</v>
+        <v>89.261744966442961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>88.274336283185846</v>
+        <v>88.73974645786727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>82.743362831858406</v>
+        <v>84.41461595824012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>83.318584070796462</v>
+        <v>84.787472035794181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>81.769911504424769</v>
+        <v>82.028337061894106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>82.30088495575221</v>
+        <v>84.116331096196873</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>80.04424778761063</v>
+        <v>76.510067114093957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>81.946902654867259</v>
+        <v>80.164056674123785</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>82.079646017699119</v>
+        <v>83.22147651006712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>81.106194690265482</v>
+        <v>81.87919463087249</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>81.504424778761063</v>
+        <v>82.401193139448168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>91.637168141592923</v>
+        <v>92.393736017897083</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>92.16814159292035</v>
+        <v>95.227442207307973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>94.646017699115049</v>
+        <v>97.017151379567494</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>88.495575221238937</v>
+        <v>91.946308724832221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>88.495575221238937</v>
+        <v>92.393736017897083</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>89.159292035398224</v>
+        <v>92.915734526472775</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>87.787610619469021</v>
+        <v>90.902311707680838</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.920353982300881</v>
+        <v>90.23117076808353</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>88.185840707964601</v>
+        <v>90.082028337061899</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>85.088495575221231</v>
+        <v>85.90604026845638</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>83.141592920353986</v>
+        <v>82.997762863534675</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>85.575221238938042</v>
+        <v>86.278896346010441</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>84.778761061946909</v>
+        <v>84.712900820283366</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>80</v>
+        <v>77.926920208799402</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>92.30088495575221</v>
+        <v>93.363161819537652</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>89.911504424778769</v>
+        <v>95.973154362416096</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>88.495575221238937</v>
+        <v>93.214019388516036</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>89.601769911504419</v>
+        <v>96.346010439970172</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>91.327433628318587</v>
+        <v>95.600298284862035</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>89.380530973451329</v>
+        <v>92.244593586875467</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>90.530973451327441</v>
+        <v>94.034302759134974</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>86.061946902654867</v>
+        <v>87.39746457867264</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>87.964601769911496</v>
+        <v>90.529455630126776</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>86.371681415929203</v>
+        <v>87.173750932140194</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>83.230088495575217</v>
+        <v>83.296047725577921</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>84.292035398230098</v>
+        <v>85.384041759880688</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>85</v>
+        <v>85.607755406413119</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>82.079646017699119</v>
+        <v>81.058911260253538</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>88.893805309734503</v>
+        <v>89.336316181953762</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>85.707964601769916</v>
+        <v>83.892617449664428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>90</v>
+        <v>90.007457121551084</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.964601769911511</v>
+        <v>82.699478001491428</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>90.265486725663706</v>
+        <v>89.858314690529454</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,49 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -120,7 +78,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -78,7 +81,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -81,152 +84,248 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0"/>
+      <c r="A2" s="0">
+        <v>90.7055630936228</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0"/>
+      <c r="A3" s="0">
+        <v>90.841248303934876</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="0"/>
+      <c r="A4" s="0">
+        <v>91.044776119402982</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="0"/>
+      <c r="A5" s="0">
+        <v>89.213025780189952</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="0"/>
+      <c r="A6" s="0">
+        <v>88.738127544097694</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
+      <c r="A7" s="0">
+        <v>89.009497964721845</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
+      <c r="A8" s="0">
+        <v>81.614654002713706</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
+      <c r="A9" s="0">
+        <v>83.514246947082768</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
+      <c r="A10" s="0">
+        <v>78.697421981004069</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
+      <c r="A11" s="0">
+        <v>80.800542740841252</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
+      <c r="A12" s="0">
+        <v>75.373134328358205</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
+      <c r="A13" s="0">
+        <v>80.732700135685207</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
+      <c r="A14" s="0">
+        <v>80.5291723202171</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
+      <c r="A15" s="0">
+        <v>79.850746268656707</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
+      <c r="A16" s="0">
+        <v>80.461329715061055</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
+      <c r="A17" s="0">
+        <v>91.723202170963376</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="0"/>
+      <c r="A18" s="0">
+        <v>92.198100407055634</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
+      <c r="A19" s="0">
+        <v>95.793758480325636</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="0"/>
+      <c r="A20" s="0">
+        <v>86.092265943012208</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
+      <c r="A21" s="0">
+        <v>87.652645861601087</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
+      <c r="A22" s="0">
+        <v>87.381275440976935</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="0"/>
+      <c r="A23" s="0">
+        <v>87.381275440976935</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="0"/>
+      <c r="A24" s="0">
+        <v>86.295793758480315</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
+      <c r="A25" s="0">
+        <v>86.431478968792391</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="0"/>
+      <c r="A26" s="0">
+        <v>80.800542740841252</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
+      <c r="A27" s="0">
+        <v>80.868385345997282</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="0"/>
+      <c r="A28" s="0">
+        <v>85.549525101763919</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="0"/>
+      <c r="A29" s="0">
+        <v>82.15739484396201</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
+      <c r="A30" s="0">
+        <v>83.039348710990495</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="0"/>
+      <c r="A31" s="0">
+        <v>82.496607869742206</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="0"/>
+      <c r="A32" s="0">
+        <v>86.838534599728632</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="0"/>
+      <c r="A33" s="0">
+        <v>86.974219810040708</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="0"/>
+      <c r="A34" s="0">
+        <v>90.773405698778831</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
+      <c r="A35" s="0">
+        <v>83.514246947082768</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="0"/>
+      <c r="A36" s="0">
+        <v>82.767978290366358</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="0"/>
+      <c r="A37" s="0">
+        <v>83.039348710990495</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="0"/>
+      <c r="A38" s="0">
+        <v>80.122116689280858</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="0"/>
+      <c r="A39" s="0">
+        <v>86.567164179104466</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="0"/>
+      <c r="A40" s="0">
+        <v>86.227951153324284</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="0"/>
+      <c r="A41" s="0">
+        <v>81.004070556309358</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="0"/>
+      <c r="A42" s="0">
+        <v>83.039348710990495</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="0"/>
+      <c r="A43" s="0">
+        <v>84.73541383989145</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="0"/>
+      <c r="A44" s="0">
+        <v>78.629579375848039</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="0"/>
+      <c r="A45" s="0">
+        <v>86.499321573948436</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="0"/>
+      <c r="A46" s="0">
+        <v>86.838534599728632</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="0"/>
+      <c r="A47" s="0">
+        <v>79.375848032564448</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="0"/>
+      <c r="A48" s="0">
+        <v>81.682496607869737</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="0"/>
+      <c r="A49" s="0">
+        <v>89.416553595658073</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -84,247 +87,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>90.7055630936228</v>
+        <v>78.057700121901661</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>90.841248303934876</v>
+        <v>77.651361235270215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>91.044776119402982</v>
+        <v>78.017066233238523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>89.213025780189952</v>
+        <v>79.926859000406338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>88.738127544097694</v>
+        <v>78.179601787891102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>89.009497964721845</v>
+        <v>80.414465664364073</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>81.614654002713706</v>
+        <v>75.822836245428689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>83.514246947082768</v>
+        <v>77.895164567249083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>78.697421981004069</v>
+        <v>73.872409589597723</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.800542740841252</v>
+        <v>76.757415684681021</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>75.373134328358205</v>
+        <v>78.13896789922795</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>80.732700135685207</v>
+        <v>80.333197887037784</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>80.5291723202171</v>
+        <v>71.271840715156443</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>79.850746268656707</v>
+        <v>72.247054043071927</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>80.461329715061055</v>
+        <v>72.003250711093045</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>91.723202170963376</v>
+        <v>88.90694839496139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>92.198100407055634</v>
+        <v>88.785046728971963</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>95.793758480325636</v>
+        <v>91.995123933360418</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>86.092265943012208</v>
+        <v>77.570093457943926</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>87.652645861601087</v>
+        <v>77.529459569280775</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>87.381275440976935</v>
+        <v>79.236082893132874</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>87.381275440976935</v>
+        <v>85.046728971962608</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>86.295793758480315</v>
+        <v>76.391710686712727</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>86.431478968792391</v>
+        <v>76.107273466070708</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>80.800542740841252</v>
+        <v>80.495733441690362</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>80.868385345997282</v>
+        <v>80.373831775700936</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>85.549525101763919</v>
+        <v>83.055668427468504</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.15739484396201</v>
+        <v>81.023973994311262</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>83.039348710990495</v>
+        <v>80.86143843965867</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>82.496607869742206</v>
+        <v>79.195449004469737</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>86.838534599728632</v>
+        <v>76.107273466070708</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>86.974219810040708</v>
+        <v>74.197480698902879</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>90.773405698778831</v>
+        <v>81.552214546932149</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>83.514246947082768</v>
+        <v>75.050792360828936</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>82.767978290366358</v>
+        <v>74.806989028850055</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>83.039348710990495</v>
+        <v>73.709874034945145</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>80.122116689280858</v>
+        <v>74.603819585534339</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>86.567164179104466</v>
+        <v>75.294595692807803</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>86.227951153324284</v>
+        <v>75.335229581470941</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>81.004070556309358</v>
+        <v>80.292563998374646</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>83.039348710990495</v>
+        <v>81.227143437626978</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>84.73541383989145</v>
+        <v>82.121088988216172</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>78.629579375848039</v>
+        <v>78.626574563185699</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>86.499321573948436</v>
+        <v>86.021942299878091</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>86.838534599728632</v>
+        <v>85.29053230394149</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>79.375848032564448</v>
+        <v>79.073547338480282</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>81.682496607869737</v>
+        <v>78.464039008533121</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>89.416553595658073</v>
+        <v>83.58390898008939</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -87,247 +90,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>78.057700121901661</v>
+        <v>98.862251117431938</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>77.651361235270215</v>
+        <v>98.821617228768787</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>78.017066233238523</v>
+        <v>98.821617228768787</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>79.926859000406338</v>
+        <v>98.821617228768787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>78.179601787891102</v>
+        <v>98.821617228768787</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>80.414465664364073</v>
+        <v>98.821617228768787</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>75.822836245428689</v>
+        <v>98.212108898821612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>77.895164567249083</v>
+        <v>98.821617228768787</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>73.872409589597723</v>
+        <v>98.740349451442498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>76.757415684681021</v>
+        <v>98.212108898821612</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>78.13896789922795</v>
+        <v>98.821617228768787</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>80.333197887037784</v>
+        <v>98.740349451442498</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>71.271840715156443</v>
+        <v>98.212108898821612</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>72.247054043071927</v>
+        <v>98.212108898821612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>72.003250711093045</v>
+        <v>98.212108898821612</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>88.90694839496139</v>
+        <v>98.821617228768787</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>88.785046728971963</v>
+        <v>98.821617228768787</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>91.995123933360418</v>
+        <v>98.740349451442498</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>77.570093457943926</v>
+        <v>98.252742787484763</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>77.529459569280775</v>
+        <v>98.252742787484763</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>79.236082893132874</v>
+        <v>98.252742787484763</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>85.046728971962608</v>
+        <v>98.90288500609509</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>76.391710686712727</v>
+        <v>98.293376676147901</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>76.107273466070708</v>
+        <v>98.293376676147901</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>80.495733441690362</v>
+        <v>98.212108898821612</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>80.373831775700936</v>
+        <v>98.212108898821612</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>83.055668427468504</v>
+        <v>98.293376676147901</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>81.023973994311262</v>
+        <v>98.780983340105649</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>80.86143843965867</v>
+        <v>98.780983340105649</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>79.195449004469737</v>
+        <v>98.780983340105649</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>76.107273466070708</v>
+        <v>98.740349451442498</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>74.197480698902879</v>
+        <v>98.740349451442498</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>81.552214546932149</v>
+        <v>98.740349451442498</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>75.050792360828936</v>
+        <v>98.862251117431938</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>74.806989028850055</v>
+        <v>98.821617228768787</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>73.709874034945145</v>
+        <v>98.293376676147901</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>74.603819585534339</v>
+        <v>98.821617228768787</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>75.294595692807803</v>
+        <v>98.821617228768787</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>75.335229581470941</v>
+        <v>98.90288500609509</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>80.292563998374646</v>
+        <v>98.212108898821612</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>81.227143437626978</v>
+        <v>98.212108898821612</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>82.121088988216172</v>
+        <v>98.212108898821612</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>78.626574563185699</v>
+        <v>98.293376676147901</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>86.021942299878091</v>
+        <v>98.212108898821612</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>85.29053230394149</v>
+        <v>98.252742787484763</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>79.073547338480282</v>
+        <v>98.740349451442498</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>78.464039008533121</v>
+        <v>98.293376676147901</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>83.58390898008939</v>
+        <v>98.740349451442498</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -90,247 +93,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>98.862251117431938</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>98.821617228768787</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>98.821617228768787</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>98.821617228768787</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>98.821617228768787</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>98.821617228768787</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>98.212108898821612</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>98.821617228768787</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>98.740349451442498</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>98.212108898821612</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>98.821617228768787</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>98.740349451442498</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>98.212108898821612</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>98.212108898821612</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>98.212108898821612</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>98.821617228768787</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>98.821617228768787</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>98.740349451442498</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>98.252742787484763</v>
+        <v>99.634369287020107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>98.252742787484763</v>
+        <v>99.634369287020107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>98.252742787484763</v>
+        <v>99.634369287020107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>98.90288500609509</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>98.293376676147901</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>98.293376676147901</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>98.212108898821612</v>
+        <v>99.314442413162709</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>98.212108898821612</v>
+        <v>99.314442413162709</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>98.293376676147901</v>
+        <v>99.314442413162709</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>98.780983340105649</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>98.780983340105649</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>98.780983340105649</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>98.740349451442498</v>
+        <v>99.405850091407672</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>98.740349451442498</v>
+        <v>99.405850091407672</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>98.740349451442498</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>98.862251117431938</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>98.821617228768787</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>98.293376676147901</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>98.821617228768787</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>98.821617228768787</v>
+        <v>99.360146252285205</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>98.90288500609509</v>
+        <v>99.405850091407672</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>98.212108898821612</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>98.212108898821612</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>98.212108898821612</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>98.293376676147901</v>
+        <v>99.314442413162709</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>98.212108898821612</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>98.252742787484763</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>98.740349451442498</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>98.293376676147901</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>98.740349451442498</v>
+        <v>99.268738574040214</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -93,7 +96,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -96,7 +99,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -99,247 +117,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>99.634369287020107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>99.634369287020107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>99.634369287020107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>99.314442413162709</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>99.314442413162709</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>99.314442413162709</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>99.405850091407672</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>99.405850091407672</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>99.360146252285205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>99.405850091407672</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>99.314442413162709</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>99.268738574040214</v>
+        <v>99.890109890109898</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -117,7 +132,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -152,62 +167,62 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -242,32 +257,32 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -317,47 +332,47 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>99.890109890109898</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -124,7 +163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.34765625" customWidth="true"/>
@@ -132,247 +171,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>100</v>
+        <v>96.24183006535948</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>100</v>
+        <v>96.40522875816994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>100</v>
+        <v>96.514161220043576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>100</v>
+        <v>96.023965141612194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>100</v>
+        <v>96.623093681917211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>100</v>
+        <v>96.895424836601308</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>100</v>
+        <v>95.588235294117652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>100</v>
+        <v>95.642701525054463</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>100</v>
+        <v>96.023965141612194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>100</v>
+        <v>96.078431372549019</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>100</v>
+        <v>92.755991285403056</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>100</v>
+        <v>97.167755991285404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>100</v>
+        <v>95.915032679738559</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>100</v>
+        <v>96.296296296296291</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>100</v>
+        <v>95.697167755991288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>100</v>
+        <v>96.023965141612194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>100</v>
+        <v>96.677559912854022</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>100</v>
+        <v>96.732026143790847</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>100</v>
+        <v>97.113289760348593</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>100</v>
+        <v>96.895424836601308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>100</v>
+        <v>96.677559912854022</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>100</v>
+        <v>96.078431372549019</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>100</v>
+        <v>96.078431372549019</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>100</v>
+        <v>95.751633986928113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>100</v>
+        <v>96.514161220043576</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>100</v>
+        <v>96.350762527233115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>100</v>
+        <v>96.350762527233115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>100</v>
+        <v>96.786492374727672</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>100</v>
+        <v>96.514161220043576</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>100</v>
+        <v>96.296296296296291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>100</v>
+        <v>96.568627450980387</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>100</v>
+        <v>96.895424836601308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>100</v>
+        <v>97.004357298474943</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>100</v>
+        <v>96.078431372549019</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>100</v>
+        <v>96.13289760348583</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>100</v>
+        <v>90.305010893246191</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>100</v>
+        <v>96.023965141612194</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>100</v>
+        <v>96.459694989106765</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>100</v>
+        <v>96.13289760348583</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>100</v>
+        <v>96.187363834422655</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>100</v>
+        <v>96.40522875816994</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>100</v>
+        <v>96.40522875816994</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>100</v>
+        <v>96.023965141612194</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>100</v>
+        <v>96.078431372549019</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>100</v>
+        <v>96.514161220043576</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>100</v>
+        <v>96.459694989106765</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>100</v>
+        <v>94.880174291938999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>100</v>
+        <v>96.568627450980387</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>85.110227683411637</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="35">
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -162,11 +162,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.34765625" customWidth="true"/>
+    <col min="1" max="1" width="12.08984375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="37" uniqueCount="35">
   <si>
     <t>HK_R_acc_SD</t>
   </si>

--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -7,117 +7,125 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Percentages" sheetId="2" r:id="rId4"/>
+    <sheet name="Statistics" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="37" uniqueCount="35">
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="43" uniqueCount="37">
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>Mean_HK_R_inclusion</t>
+  </si>
+  <si>
+    <t>Std_HK_R_inclusion</t>
   </si>
 </sst>
 </file>
@@ -424,4 +432,296 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.08984375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>96.24183006535948</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>96.40522875816994</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>96.514161220043576</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>96.023965141612194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>96.623093681917211</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>96.895424836601308</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>95.588235294117652</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>95.642701525054463</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>96.023965141612194</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>92.755991285403056</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>97.167755991285404</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>95.915032679738559</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>96.296296296296291</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>95.697167755991288</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>96.023965141612194</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>96.677559912854022</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>96.732026143790847</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>97.113289760348593</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>96.895424836601308</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>96.677559912854022</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>95.751633986928113</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>96.514161220043576</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>96.350762527233115</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>96.350762527233115</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>96.786492374727672</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>96.514161220043576</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>96.296296296296291</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>96.568627450980387</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>96.895424836601308</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>97.004357298474943</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>96.13289760348583</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>90.305010893246191</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>96.023965141612194</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>96.459694989106765</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>96.13289760348583</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>96.187363834422655</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>96.40522875816994</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>96.40522875816994</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>96.023965141612194</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>96.514161220043576</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>96.459694989106765</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>94.880174291938999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>96.568627450980387</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" customWidth="true"/>
+    <col min="2" max="2" width="17.26953125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1765</v>
+      </c>
+      <c r="B2" s="0">
+        <v>19.976537656400534</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/Thresholding/StanDep/MatchComparisonResults.xlsx
+++ b/Thresholding/StanDep/MatchComparisonResults.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="51" uniqueCount="37">
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -187,242 +187,242 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>96.24183006535948</v>
+        <v>89.880737260571024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>96.40522875816994</v>
+        <v>90.458980845681253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>96.514161220043576</v>
+        <v>90.35056017347307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>96.023965141612194</v>
+        <v>82.399710878207443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>96.623093681917211</v>
+        <v>90.748102638236361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>96.895424836601308</v>
+        <v>90.711962414166976</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>95.588235294117652</v>
+        <v>84.495843874232023</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>95.642701525054463</v>
+        <v>76.508854354897011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>96.023965141612194</v>
+        <v>77.267799060354164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>96.078431372549019</v>
+        <v>77.303939284423564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>92.755991285403056</v>
+        <v>75.786049873509214</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>97.167755991285404</v>
+        <v>78.315865558366454</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>95.915032679738559</v>
+        <v>83.122515359595226</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>96.296296296296291</v>
+        <v>75.388507408745937</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>95.697167755991288</v>
+        <v>83.050234911456457</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>96.023965141612194</v>
+        <v>74.304300686664263</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>96.677559912854022</v>
+        <v>81.2070834839176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>96.732026143790847</v>
+        <v>81.387784604264539</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>97.113289760348593</v>
+        <v>89.844597036501625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>96.895424836601308</v>
+        <v>90.097578604987348</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>96.677559912854022</v>
+        <v>82.616552222623781</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>96.078431372549019</v>
+        <v>82.002168413444167</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>96.078431372549019</v>
+        <v>79.255511384170589</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>95.751633986928113</v>
+        <v>81.170943259848215</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>96.514161220043576</v>
+        <v>76.219732562341889</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>96.350762527233115</v>
+        <v>76.147452114203105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>96.350762527233115</v>
+        <v>76.328153234550058</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>96.786492374727672</v>
+        <v>73.762197325623418</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>96.514161220043576</v>
+        <v>73.328514636790743</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>96.296296296296291</v>
+        <v>74.12359956631731</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>96.568627450980387</v>
+        <v>90.531261293820023</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>96.895424836601308</v>
+        <v>89.772316588362841</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>97.004357298474943</v>
+        <v>83.19479580773401</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>96.078431372549019</v>
+        <v>90.061438380917963</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>96.13289760348583</v>
+        <v>89.916877484640395</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>90.305010893246191</v>
+        <v>67.509938561619094</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>96.023965141612194</v>
+        <v>89.663895916154672</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>96.459694989106765</v>
+        <v>82.038308637513552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>96.13289760348583</v>
+        <v>81.062522587640046</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>96.187363834422655</v>
+        <v>75.280086736537768</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>96.40522875816994</v>
+        <v>74.087459342247925</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>96.40522875816994</v>
+        <v>74.59342247921937</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>96.023965141612194</v>
+        <v>75.388507408745937</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>96.078431372549019</v>
+        <v>76.436573906758227</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>96.514161220043576</v>
+        <v>83.19479580773401</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>96.459694989106765</v>
+        <v>75.822190097578599</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>94.880174291938999</v>
+        <v>74.882544271774492</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>96.568627450980387</v>
+        <v>76.400433682688828</v>
       </c>
     </row>
     <row r="50">
